--- a/我的创作/健康/健康日志.xlsx
+++ b/我的创作/健康/健康日志.xlsx
@@ -14,12 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
-    <t>时间</t>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>作息时间</t>
+  </si>
+  <si>
+    <t>饮食</t>
+  </si>
+  <si>
+    <t>锻炼</t>
   </si>
   <si>
     <t>身体状况</t>
+  </si>
+  <si>
+    <t>起床时间</t>
+  </si>
+  <si>
+    <t>睡觉时间</t>
+  </si>
+  <si>
+    <t>起床到午饭</t>
+  </si>
+  <si>
+    <t>午饭到晚饭</t>
+  </si>
+  <si>
+    <t>晚饭到睡觉</t>
   </si>
   <si>
     <t>小腹胀气、会阴胀痛</t>
@@ -33,11 +57,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -386,12 +410,75 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,7 +593,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,7 +626,7 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,19 +644,19 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,7 +692,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,13 +710,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,18 +725,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,43 +1088,1351 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.3303571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.9642857142857" customWidth="1"/>
+    <col min="1" max="1" width="11.7589285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5535714285714" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5535714285714" customWidth="1"/>
+    <col min="5" max="5" width="41.3571428571429" customWidth="1"/>
+    <col min="6" max="6" width="51.7857142857143" customWidth="1"/>
+    <col min="7" max="7" width="45.3839285714286" customWidth="1"/>
+    <col min="8" max="8" width="39.5803571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10">
+        <v>44588</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10">
         <v>44589</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="B4" s="6">
         <v>44589.3333333333</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10">
+        <v>44590</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44589.3333333333</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10">
+        <v>44591</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10">
+        <v>44592</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10">
+        <v>44593</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="10">
+        <v>44594</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10">
+        <v>44595</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10">
+        <v>44596</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10">
+        <v>44597</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10">
+        <v>44598</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10">
+        <v>44599</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10">
+        <v>44600</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10">
+        <v>44601</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10">
+        <v>44602</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10">
+        <v>44603</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10">
+        <v>44604</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10">
+        <v>44605</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10">
+        <v>44606</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10">
+        <v>44607</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10">
+        <v>44608</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10">
+        <v>44609</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10">
+        <v>44610</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10">
+        <v>44611</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10">
+        <v>44612</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="10"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="10"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="10"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="10"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="10"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="10"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="10"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="10"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="10"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="10"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="10"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="10"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="10"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="10"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="10"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="10"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="10"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="10"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="10"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="10"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="10"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="10"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="10"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="10"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="10"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="10"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="10"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="10"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="10"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="10"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="10"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="10"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="10"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="10"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="10"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="10"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="10"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="10"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="10"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="10"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="10"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="10"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="10"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="10"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="10"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="10"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="10"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="10"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="10"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="10"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="10"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="10"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="10"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="10"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="10"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="10"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="10"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="10"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="10"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="10"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="10"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="10"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="10"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="10"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="10"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="10"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="10"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="10"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="10"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="10"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="10"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="10"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="10"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="10"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="10"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="10"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="10"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="10"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="10"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="10"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="10"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="10"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="10"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="10"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="10"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="10"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="10"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="10"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="10"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="10"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="10"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="10"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="10"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="10"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="10"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="10"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/我的创作/健康/健康日志.xlsx
+++ b/我的创作/健康/健康日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>日期</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>睡觉时间</t>
+  </si>
+  <si>
+    <t>跑步(公里数)</t>
+  </si>
+  <si>
+    <t>深蹲(个数)</t>
+  </si>
+  <si>
+    <t>卷腹/腰部左转右转（个数）</t>
+  </si>
+  <si>
+    <t>上肢（个数）</t>
   </si>
   <si>
     <t>起床到午饭</t>
@@ -410,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -479,6 +491,28 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -593,7 +627,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,7 +660,7 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,19 +678,19 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,7 +726,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,13 +744,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,11 +759,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +801,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,25 +1131,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="11.7589285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5535714285714" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.5535714285714" customWidth="1"/>
-    <col min="5" max="5" width="41.3571428571429" customWidth="1"/>
-    <col min="6" max="6" width="51.7857142857143" customWidth="1"/>
-    <col min="7" max="7" width="45.3839285714286" customWidth="1"/>
-    <col min="8" max="8" width="39.5803571428571" customWidth="1"/>
+    <col min="5" max="5" width="24.4017857142857" customWidth="1"/>
+    <col min="6" max="6" width="23.8035714285714" customWidth="1"/>
+    <col min="7" max="7" width="21.7232142857143" customWidth="1"/>
+    <col min="8" max="8" width="18.1517857142857" customWidth="1"/>
+    <col min="9" max="9" width="51.7857142857143" customWidth="1"/>
+    <col min="10" max="10" width="45.3839285714286" customWidth="1"/>
+    <col min="11" max="11" width="39.5803571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1117,16 +1163,19 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="8"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -1135,18 +1184,29 @@
         <v>6</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="10">
         <v>44588</v>
       </c>
@@ -1156,12 +1216,12 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="10">
         <v>44589</v>
       </c>
@@ -1171,13 +1231,16 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="10">
         <v>44590</v>
       </c>
@@ -1190,8 +1253,11 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="10">
         <v>44591</v>
       </c>
@@ -1202,8 +1268,11 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="10">
         <v>44592</v>
       </c>
@@ -1214,8 +1283,11 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="10">
         <v>44593</v>
       </c>
@@ -1226,8 +1298,11 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="10">
         <v>44594</v>
       </c>
@@ -1238,8 +1313,11 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>44595</v>
       </c>
@@ -1250,8 +1328,11 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>44596</v>
       </c>
@@ -1262,8 +1343,11 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>44597</v>
       </c>
@@ -1274,8 +1358,11 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>44598</v>
       </c>
@@ -1286,8 +1373,11 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>44599</v>
       </c>
@@ -1298,8 +1388,11 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="10">
         <v>44600</v>
       </c>
@@ -1310,8 +1403,11 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="10">
         <v>44601</v>
       </c>
@@ -1322,8 +1418,11 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="10">
         <v>44602</v>
       </c>
@@ -1334,8 +1433,11 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="10">
         <v>44603</v>
       </c>
@@ -1346,8 +1448,11 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="10">
         <v>44604</v>
       </c>
@@ -1358,8 +1463,11 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="10">
         <v>44605</v>
       </c>
@@ -1370,8 +1478,11 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="10">
         <v>44606</v>
       </c>
@@ -1382,8 +1493,11 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="10">
         <v>44607</v>
       </c>
@@ -1394,8 +1508,11 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="10">
         <v>44608</v>
       </c>
@@ -1406,8 +1523,11 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="10">
         <v>44609</v>
       </c>
@@ -1418,8 +1538,11 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="10">
         <v>44610</v>
       </c>
@@ -1430,8 +1553,11 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="10">
         <v>44611</v>
       </c>
@@ -1442,8 +1568,11 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="10">
         <v>44612</v>
       </c>
@@ -1454,8 +1583,11 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="10"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1464,8 +1596,11 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="10"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1474,8 +1609,11 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="10"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1484,8 +1622,11 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="10"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1494,8 +1635,11 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="10"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1504,8 +1648,11 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="10"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1514,8 +1661,11 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="10"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1524,8 +1674,11 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="10"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1534,8 +1687,11 @@
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="10"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1544,8 +1700,11 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="10"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1554,8 +1713,11 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="10"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1564,8 +1726,11 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="10"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1574,8 +1739,11 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="10"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1584,8 +1752,11 @@
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="10"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1594,8 +1765,11 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="10"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1604,8 +1778,11 @@
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="10"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1614,8 +1791,11 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="10"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1624,8 +1804,11 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="10"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1634,8 +1817,11 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="10"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1644,8 +1830,11 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="10"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1654,8 +1843,11 @@
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="10"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1664,8 +1856,11 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="10"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1674,8 +1869,11 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="10"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1684,8 +1882,11 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="10"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1694,8 +1895,11 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="10"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1704,8 +1908,11 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="10"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1714,8 +1921,11 @@
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="10"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1724,8 +1934,11 @@
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="10"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1734,8 +1947,11 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="10"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1744,8 +1960,11 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="10"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1754,8 +1973,11 @@
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="10"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1764,8 +1986,11 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="10"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1774,8 +1999,11 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="10"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1784,8 +2012,11 @@
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="10"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1794,8 +2025,11 @@
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="10"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1804,8 +2038,11 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="10"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1814,8 +2051,11 @@
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="10"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1824,8 +2064,11 @@
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="10"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1834,8 +2077,11 @@
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="10"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1844,8 +2090,11 @@
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="10"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1854,8 +2103,11 @@
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="10"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1864,8 +2116,11 @@
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="10"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1874,8 +2129,11 @@
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="10"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1884,8 +2142,11 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="10"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1894,8 +2155,11 @@
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="10"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1904,8 +2168,11 @@
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="10"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1914,8 +2181,11 @@
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="10"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -1924,8 +2194,11 @@
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="10"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -1934,8 +2207,11 @@
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="10"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -1944,8 +2220,11 @@
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="10"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -1954,8 +2233,11 @@
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="10"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -1964,8 +2246,11 @@
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="10"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -1974,8 +2259,11 @@
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="10"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1984,8 +2272,11 @@
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="10"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -1994,8 +2285,11 @@
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="10"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2004,8 +2298,11 @@
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="10"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2014,8 +2311,11 @@
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="10"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2024,8 +2324,11 @@
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="10"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2034,8 +2337,11 @@
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="10"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2044,8 +2350,11 @@
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="10"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2054,8 +2363,11 @@
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="10"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2064,8 +2376,11 @@
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="10"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2074,8 +2389,11 @@
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="10"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2084,8 +2402,11 @@
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="10"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2094,8 +2415,11 @@
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="10"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2104,8 +2428,11 @@
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="10"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2114,8 +2441,11 @@
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="10"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2124,8 +2454,11 @@
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="10"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2134,8 +2467,11 @@
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="10"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2144,8 +2480,11 @@
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="10"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2154,8 +2493,11 @@
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="10"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2164,8 +2506,11 @@
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="10"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2174,8 +2519,11 @@
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="10"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2184,8 +2532,11 @@
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="10"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2194,8 +2545,11 @@
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="10"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -2204,8 +2558,11 @@
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="10"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -2214,8 +2571,11 @@
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="10"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -2224,8 +2584,11 @@
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="10"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -2234,8 +2597,11 @@
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="10"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -2244,8 +2610,11 @@
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="10"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -2254,8 +2623,11 @@
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="10"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -2264,8 +2636,11 @@
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="10"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -2274,8 +2649,11 @@
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="10"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -2284,8 +2662,11 @@
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="10"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -2294,8 +2675,11 @@
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="10"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -2304,8 +2688,11 @@
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="10"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -2314,8 +2701,11 @@
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="10"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -2324,8 +2714,11 @@
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="10"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -2334,8 +2727,11 @@
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="10"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -2344,8 +2740,11 @@
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="10"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -2354,8 +2753,11 @@
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="10"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -2364,8 +2766,11 @@
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="10"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -2374,8 +2779,11 @@
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="10"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -2384,8 +2792,11 @@
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="10"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -2394,8 +2805,11 @@
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="10"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -2404,8 +2818,11 @@
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="10"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -2414,8 +2831,11 @@
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="10"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -2424,14 +2844,17 @@
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
